--- a/morze.xlsx
+++ b/morze.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,45 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>А</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>Г</t>
-  </si>
-  <si>
-    <t>Д</t>
-  </si>
-  <si>
-    <t>Е</t>
-  </si>
-  <si>
-    <t>АБВГДЕЁЖЗИЙК</t>
-  </si>
-  <si>
-    <t>Перевод:</t>
-  </si>
-  <si>
-    <t>Слово:</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>З</t>
-  </si>
-  <si>
-    <t>И</t>
-  </si>
-  <si>
-    <t>К</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>г</t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>е</t>
+  </si>
+  <si>
+    <t>ж</t>
   </si>
   <si>
     <t>.-</t>
@@ -72,62 +59,53 @@
     <t>--.</t>
   </si>
   <si>
+    <t>-..</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
     <t>…-</t>
   </si>
   <si>
-    <t>--..</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>Й</t>
-  </si>
-  <si>
-    <t>-..</t>
-  </si>
-  <si>
-    <t>.---</t>
-  </si>
-  <si>
-    <t>-.-</t>
-  </si>
-  <si>
-    <t>дбваежгзийк</t>
+    <t>аабаев</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -135,39 +113,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,247 +401,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="54.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f ca="1">CONCATENATE(H4,H5,H6,H7,H8,H9,H10,H11,H12,H13,H14,)</f>
+        <v xml:space="preserve">.-|.- -…|.- .|.--  </v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f>MID(A$1,C4,1)</f>
+        <v>а</v>
+      </c>
+      <c r="F4">
+        <f>MATCH(E4,A$4:A$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f ca="1">OFFSET(A$4,F4-1,1,1,1)</f>
+        <v>.-</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H10" ca="1" si="0">IFERROR(G4&amp;"|"," ")</f>
+        <v>.-|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E10" si="1">MID(A$1,C5,1)</f>
+        <v>а</v>
+      </c>
+      <c r="F5">
+        <f>MATCH(E5,A$4:A$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G10" ca="1" si="2">OFFSET(A$4,F5-1,1,1,1)</f>
+        <v>.-</v>
+      </c>
+      <c r="H5" t="str">
+        <f ca="1">IFERROR(G5&amp;" "," ")</f>
+        <v xml:space="preserve">.- </v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>б</v>
+      </c>
+      <c r="F6">
+        <f>MATCH(E6,A$4:A$14,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-…</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>-…|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>а</v>
+      </c>
+      <c r="F7">
+        <f>MATCH(E7,A$4:A$14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>.-</v>
+      </c>
+      <c r="H7" t="str">
+        <f ca="1">IFERROR(G7&amp;" "," ")</f>
+        <v xml:space="preserve">.- </v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>е</v>
+      </c>
+      <c r="F8">
+        <f>MATCH(E8,A$4:A$14,0)</f>
         <v>6</v>
       </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <f>MID($D$3,1,1)</f>
-        <v>д</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>.</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>.|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>в</v>
+      </c>
+      <c r="F9">
+        <f>MATCH(E9,A$4:A$14,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>.--</v>
+      </c>
+      <c r="H9" t="str">
+        <f ca="1">IFERROR(G9&amp;" "," ")</f>
+        <v xml:space="preserve">.-- </v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1">
-        <f>SEARCH(J1,$D$3)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f>MID($D$3,2,1)</f>
-        <v>б</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M11" si="0">SEARCH(J2,$D$3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>MID($D$3,3,1)</f>
-        <v>в</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="str">
-        <f>CONCATENATE(M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11)</f>
-        <v>4237156891011</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f>MID($D$3,4,1)</f>
-        <v>а</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>MID($D$3,5,1)</f>
-        <v>е</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f>MID($D$3,6,1)</f>
-        <v>ж</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f>MID($D$3,7,1)</f>
-        <v>г</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="1">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>MID($D$3,8,1)</f>
-        <v>з</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="1">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f>MID($D$3,9,1)</f>
-        <v>и</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>MID($D$3,10,1)</f>
-        <v>й</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="1">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>MID($D$3,11,1)</f>
-        <v>к</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" t="e">
+        <f>MATCH(E10,A$4:A$14,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
